--- a/municipal/ბიზნეს რეგისტრი/საჯარო დაწესებულებების რაოდენობა/საჯარო დაწესებულებების რაოდენობა (მოსახლეობის 1000 კაცზე).xlsx
+++ b/municipal/ბიზნეს რეგისტრი/საჯარო დაწესებულებების რაოდენობა/საჯარო დაწესებულებების რაოდენობა (მოსახლეობის 1000 კაცზე).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\რეგისტრი 1000 კაცზე ქარ. EN\საჯარო დაწესებულებების რაოდენობა (მოსახლეობის 1000 კაცზე)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E535BE30-54FF-4EAE-B203-93B42A509F88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="1410" yWindow="90" windowWidth="16020" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="საჯარო დაწესებულებათა რაოდენობა" sheetId="1" r:id="rId1"/>
@@ -263,7 +264,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -369,16 +373,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -387,7 +388,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -398,11 +398,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,3234 +682,3232 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.5703125" style="1" customWidth="1"/>
-    <col min="2" max="13" width="11" style="7" customWidth="1"/>
+    <col min="2" max="13" width="11" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-    </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="8">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+    </row>
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="5">
         <v>2010</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="5">
         <v>2011</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="5">
         <v>2012</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="5">
         <v>2013</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="5">
         <v>2014</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="5">
         <v>2015</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="5">
         <v>2016</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="5">
         <v>2017</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="5">
         <v>2018</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="5">
         <v>2019</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="5">
         <v>2020</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="5">
         <v>2021</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="14">
         <v>0.80931577042144298</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="14">
         <v>0.81351624344834605</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="14">
         <v>0.82104676604927262</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="14">
         <v>0.82299522372206391</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="14">
         <v>0.83048623343460726</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="14">
         <v>0.82362558318913404</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="14">
         <v>0.82600404575600839</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="14">
         <v>0.82769537914320257</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="14">
         <v>0.83148380110563713</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="14">
         <v>0.83619013693824185</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="14">
         <v>0.83651305740828996</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="14">
         <v>0.84719410667380213</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="15">
         <v>0.46188114076442699</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="15">
         <v>0.4600439882697947</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="15">
         <v>0.47069467757872463</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="15">
         <v>0.47311894355536627</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="15">
         <v>0.48759107600774049</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="15">
         <v>0.47528097232945982</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="15">
         <v>0.47316656685354713</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="15">
         <v>0.47381625768009555</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="15">
         <v>0.47648365310965357</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="15">
         <v>0.4785545121698016</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="15">
         <v>0.4797415215871213</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="15">
         <v>0.48262186826253634</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="14">
         <v>0</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="14">
         <v>0</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="14">
         <v>0</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="14">
         <v>0</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="14">
         <v>0</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="14">
         <v>0</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="14">
         <v>0</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="14">
         <v>0</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="14">
         <v>0</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="14">
         <v>0</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="14">
         <v>0</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="14">
         <v>0.87900443716623433</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="14">
         <v>0.88894781725643579</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="14">
         <v>0.88428765215612803</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="14">
         <v>0.89126024799241377</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="14">
         <v>0.88524755739998628</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="14">
         <v>0.87305180107353042</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="14">
         <v>0.86876160656760448</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="14">
         <v>0.86040878078920857</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="14">
         <v>0.85093459550523165</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="14">
         <v>0.84685073829470403</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="14">
         <v>0.83966131781744413</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="14">
         <v>0.83834558968328543</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="15">
         <v>0.52462026509717774</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="15">
         <v>0.45727464312696331</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="15">
         <v>0.44874417622447771</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="15">
         <v>0.46635051167189939</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="15">
         <v>0.46402815104116313</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="15">
         <v>0.45505106684194563</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="15">
         <v>0.45397727626071982</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="15">
         <v>0.4466470876162506</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="15">
         <v>0.43362000433620002</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="15">
         <v>0.43170998551110323</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="15">
         <v>0.42426320591876232</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="15">
         <v>0.42015597571153124</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="15">
         <v>1.8010446058714054</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="15">
         <v>1.8037518037518039</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="15">
         <v>1.8005041411595248</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="15">
         <v>1.7946877243359654</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="15">
         <v>1.7946877243359654</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="15">
         <v>1.7900829405095768</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="15">
         <v>1.7864586434824035</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="15">
         <v>1.7831669044222538</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="15">
         <v>1.784758165268606</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="15">
         <v>1.7885888034340904</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="15">
         <v>1.7964071856287427</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="15">
         <v>1.8059234288466171</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="15">
         <v>0.72037459478929045</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="15">
         <v>0.70939072705857154</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="15">
         <v>0.70985628758555108</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="15">
         <v>0.70933376161032147</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="15">
         <v>0.71167687184445161</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="15">
         <v>0.71536551128387871</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="15">
         <v>0.72030443055178039</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="15">
         <v>0.72208068229812394</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="15">
         <v>0.72796198115539934</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="15">
         <v>0.73448911431699437</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="15">
         <v>0.73771975001043943</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="15">
         <v>0.74925427993836324</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="15">
         <v>3.1418876460977758</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="15">
         <v>3.1936637710781808</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="15">
         <v>3.2375032375032378</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="15">
         <v>3.2851511169513801</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="15">
         <v>3.2929399367755536</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="15">
         <v>3.3031644315254014</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="15">
         <v>3.3068783068783074</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="15">
         <v>3.3079722130334108</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="15">
         <v>3.3108197589723218</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="15">
         <v>3.3246891415652642</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="15">
         <v>3.3476164970540978</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="15">
         <v>3.3697263782180893</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="15">
         <v>0.524182722426071</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="15">
         <v>0.80243941582410527</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="15">
         <v>0.79478620251152432</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="15">
         <v>0.78732408227536665</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="15">
         <v>0.78250322782581472</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="15">
         <v>0.7575904737854271</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="15">
         <v>0.75343391998145393</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="15">
         <v>0.74828757267023538</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="15">
         <v>0.74477227155542824</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="15">
         <v>0.74189621062243194</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="15">
         <v>0.73951874395585637</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="15">
         <v>0.74009412479125558</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="15">
         <v>2.1675118599705545</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="15">
         <v>2.1981668118286257</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="15">
         <v>2.2231543624161074</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="15">
         <v>2.2523479665122603</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="15">
         <v>2.2105438772105437</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="15">
         <v>2.1633536062696432</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="15">
         <v>2.1233974358974357</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="15">
         <v>2.0825147347740667</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="15">
         <v>2.0461740406146238</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="15">
         <v>2.0184324777210754</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="15">
         <v>1.990535566739277</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="15">
         <v>1.9751062085414024</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="14">
         <v>0.95061104592907242</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="14">
         <v>0.9584581775479013</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="14">
         <v>0.9659061243669399</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="14">
         <v>0.97261774370208109</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="14">
         <v>0.99755466687853667</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="14">
         <v>1.0050519425074711</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="14">
         <v>1.013843903927075</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="14">
         <v>1.0224023741449821</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="14">
         <v>1.032944531792753</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="14">
         <v>1.0453380697323749</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="14">
         <v>1.0550788508043809</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="14">
         <v>1.0726456377495326</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="15">
         <v>1.0174821940616039</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="15">
         <v>1.0261194029850744</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="15">
         <v>1.0341585709808838</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="15">
         <v>1.0414694186707063</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="15">
         <v>1.0478186321204039</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="15">
         <v>1.053303542930099</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="15">
         <v>1.0623913463395789</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="15">
         <v>1.0712894429294897</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="15">
         <v>1.0819317399429527</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="15">
         <v>1.0944547625364818</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="15">
         <v>1.1039373766433613</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="15">
         <v>1.1216478025899868</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="15">
         <v>0.6947017413856984</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="15">
         <v>0.70082541660177544</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="15">
         <v>0.70599309695638535</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="15">
         <v>0.71092293595374256</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="15">
         <v>0.74837189306243335</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="15">
         <v>0.75431726263080179</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="15">
         <v>0.76066550139185596</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="15">
         <v>0.7666585107250633</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="15">
         <v>0.77516822799841667</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="15">
         <v>0.78447081601655744</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="15">
         <v>0.79181899354751761</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M15" s="15">
         <v>0.80573270246177053</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="15">
         <v>1.6872890888638921</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="15">
         <v>1.6974435471426368</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="15">
         <v>1.7126842433049616</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="15">
         <v>1.7240478553889558</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="15">
         <v>1.738672286617492</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="15">
         <v>1.7558795360221346</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="15">
         <v>1.7735260923308434</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="15">
         <v>1.7920173771382026</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="15">
         <v>1.8069320484038764</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="15">
         <v>1.8298768991904182</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="15">
         <v>1.8486359307601816</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="15">
         <v>1.8756394225304081</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="14">
         <v>0.96344968611917448</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="14">
         <v>0.96448304798439399</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="14">
         <v>0.97818337898803165</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="14">
         <v>0.97719567135757746</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="14">
         <v>0.99250442577874864</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="14">
         <v>1.0006359002954166</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="14">
         <v>1.0206045478138652</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="14">
         <v>1.0354253527349035</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="14">
         <v>1.055497028524556</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="14">
         <v>1.0780663801405799</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="14">
         <v>1.0904038232673483</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="14">
         <v>1.1250450018000719</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="15">
         <v>0.62488442826263002</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="15">
         <v>0.62442273419104732</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="15">
         <v>0.63593004769475359</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="15">
         <v>0.6165517333815852</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="15">
         <v>0.6312874190526615</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="15">
         <v>0.63277209199955986</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="15">
         <v>0.65136541599837516</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="15">
         <v>0.65975695405112045</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="15">
         <v>0.67298159793329526</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="15">
         <v>0.68786473472829346</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="15">
         <v>0.69207757222164346</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M18" s="15">
         <v>0.71922972816209729</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="15">
         <v>1.374479028110313</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="15">
         <v>1.3943864699532207</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="15">
         <v>1.3667425968109339</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="15">
         <v>1.331863690640213</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="15">
         <v>1.3602251407129455</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="15">
         <v>1.3892881096100413</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="15">
         <v>1.430474029497361</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="15">
         <v>1.4624306606152295</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="15">
         <v>1.5044615065366258</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="15">
         <v>1.5507192128763168</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="15">
         <v>1.5792626477155149</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="15">
         <v>1.6499772416932179</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="15">
         <v>1.4327757125154896</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="15">
         <v>1.338319228498327</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="15">
         <v>1.3592931675528723</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="15">
         <v>1.4155140338105638</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="15">
         <v>1.4416937842402273</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="15">
         <v>1.4681823902009314</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="15">
         <v>1.504082509669102</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="15">
         <v>1.53576129881527</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20" s="15">
         <v>1.5731044091869297</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="15">
         <v>1.617001617001617</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L20" s="15">
         <v>1.6477566969540041</v>
       </c>
-      <c r="M20" s="17">
+      <c r="M20" s="15">
         <v>1.7044901139573392</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="15">
         <v>0.63051702395964693</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="15">
         <v>0.64047462540661704</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="15">
         <v>0.68371393408997672</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="15">
         <v>0.68915612832087103</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="15">
         <v>0.69408294291167794</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="15">
         <v>0.69771498342926919</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="15">
         <v>0.703358537014243</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="15">
         <v>0.70756385763815188</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="15">
         <v>0.71389052488800842</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="15">
         <v>0.72086359458631444</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="15">
         <v>0.72539987668202088</v>
       </c>
-      <c r="M21" s="17">
+      <c r="M21" s="15">
         <v>0.7370418824049676</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="15">
         <v>0.93347610026631522</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="15">
         <v>0.9428729894620077</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="15">
         <v>0.95051719317864147</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="15">
         <v>0.952914798206278</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="15">
         <v>0.96794397312532032</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="15">
         <v>0.95466774669482457</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="15">
         <v>0.97279132152227099</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="15">
         <v>0.99012871673317526</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="15">
         <v>1.0121767935466062</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K22" s="15">
         <v>1.036009167111418</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="15">
         <v>1.0500525026251313</v>
       </c>
-      <c r="M22" s="17">
+      <c r="M22" s="15">
         <v>1.0847769632819435</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="15">
         <v>1.0305396460492677</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="15">
         <v>1.0446381935794928</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="15">
         <v>1.0575554199715274</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="15">
         <v>1.04360637623033</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="15">
         <v>1.05791569863923</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="15">
         <v>1.0512594087717086</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="15">
         <v>1.071742438857094</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="15">
         <v>1.0891585161304378</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="15">
         <v>1.1107408641563923</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K23" s="15">
         <v>1.1351253178350889</v>
       </c>
-      <c r="L23" s="17">
+      <c r="L23" s="15">
         <v>1.1508009574663967</v>
       </c>
-      <c r="M23" s="17">
+      <c r="M23" s="15">
         <v>1.1848341232227488</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="15">
         <v>0.94426229508196724</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="15">
         <v>0.95057034220532322</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="15">
         <v>0.95308694270888494</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="15">
         <v>0.95165084987707838</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="15">
         <v>0.96028168262690394</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="15">
         <v>0.96946194861851676</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="15">
         <v>0.98140777493048359</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="15">
         <v>0.99140779907468612</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24" s="15">
         <v>1.0048848569434752</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K24" s="15">
         <v>1.0211896859841716</v>
       </c>
-      <c r="L24" s="17">
+      <c r="L24" s="15">
         <v>1.0330578512396695</v>
       </c>
-      <c r="M24" s="17">
+      <c r="M24" s="15">
         <v>1.0554399132193848</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="15">
         <v>1.3230429988974599</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="15">
         <v>1.358080579447714</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="15">
         <v>1.344335249397367</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="15">
         <v>1.3697983090076047</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="15">
         <v>1.3979272113762351</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="15">
         <v>1.4303329223181258</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="15">
         <v>1.4671658403318832</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="15">
         <v>1.4988629315691546</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J25" s="15">
         <v>1.5431277603362954</v>
       </c>
-      <c r="K25" s="17">
+      <c r="K25" s="15">
         <v>1.5913954892169238</v>
       </c>
-      <c r="L25" s="17">
+      <c r="L25" s="15">
         <v>1.6202927701419154</v>
       </c>
-      <c r="M25" s="17">
+      <c r="M25" s="15">
         <v>1.6880093131548313</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="15">
         <v>0.86616847826086962</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="15">
         <v>0.87731369985550134</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="15">
         <v>0.88691024816096553</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="15">
         <v>0.89145254326166767</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="15">
         <v>0.91317660119250132</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="15">
         <v>0.93798278525711776</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="15">
         <v>0.96653147860364641</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="15">
         <v>0.99173553719008278</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J26" s="15">
         <v>1.0258266956311852</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K26" s="15">
         <v>1.0654521904443564</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L26" s="15">
         <v>1.0896737388628936</v>
       </c>
-      <c r="M26" s="17">
+      <c r="M26" s="15">
         <v>1.1435233973855918</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="15">
         <v>1.30933676141504</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="15">
         <v>1.2596288939489366</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="15">
         <v>1.2784265519360787</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="15">
         <v>1.2912197059992054</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="15">
         <v>1.2988310520531521</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="15">
         <v>1.3046641744235643</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="15">
         <v>1.3150574073137422</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="15">
         <v>1.3240985944184152</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J27" s="15">
         <v>1.3348050414559642</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K27" s="15">
         <v>1.3488975356679638</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L27" s="15">
         <v>1.3601527556171693</v>
       </c>
-      <c r="M27" s="17">
+      <c r="M27" s="15">
         <v>1.3811787829690032</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="15">
         <v>1.3605442176870746</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="15">
         <v>1.3843567685157718</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="15">
         <v>1.4066110720385814</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="15">
         <v>1.422619652474342</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="15">
         <v>1.4343527483223193</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="15">
         <v>1.4424067587059548</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="15">
         <v>1.4556797504548997</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="15">
         <v>1.4661221070269137</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J28" s="15">
         <v>1.4817166746044343</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K28" s="15">
         <v>1.4959662339050059</v>
       </c>
-      <c r="L28" s="17">
+      <c r="L28" s="15">
         <v>1.5077271013946472</v>
       </c>
-      <c r="M28" s="17">
+      <c r="M28" s="15">
         <v>1.5312260745925841</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="15">
         <v>1.9738167170191336</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="15">
         <v>2.0078675626946403</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="15">
         <v>2.0375914836992681</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="15">
         <v>2.0585640465487547</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="15">
         <v>2.0885725246153193</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="15">
         <v>2.1255368064893942</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="15">
         <v>2.1639286345168705</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="15">
         <v>2.2038319690564006</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J29" s="15">
         <v>2.2432816005127503</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="15">
         <v>2.2858742302668413</v>
       </c>
-      <c r="L29" s="17">
+      <c r="L29" s="15">
         <v>2.3197462481655071</v>
       </c>
-      <c r="M29" s="17">
+      <c r="M29" s="15">
         <v>2.3881469928842969</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="14">
         <v>0.8551226135489427</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="14">
         <v>0.85658799663549556</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="14">
         <v>0.85602313441430899</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="14">
         <v>0.85909579386699331</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="14">
         <v>0.86564065249232369</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="14">
         <v>0.85909571522078443</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="14">
         <v>0.86424403972356856</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="14">
         <v>0.86754522834235315</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J30" s="14">
         <v>0.8769318905563398</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K30" s="14">
         <v>0.88372558063028339</v>
       </c>
-      <c r="L30" s="11">
+      <c r="L30" s="14">
         <v>0.88507581288076032</v>
       </c>
-      <c r="M30" s="11">
+      <c r="M30" s="14">
         <v>0.89859930014200495</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="15">
         <v>0.85517072872762823</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="15">
         <v>0.8652390222799049</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="15">
         <v>0.87524616298333913</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="15">
         <v>0.88241782484006182</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="15">
         <v>0.89494039057755626</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="15">
         <v>0.87158628704241714</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="15">
         <v>0.88527492704678845</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="15">
         <v>0.89424701089656544</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J31" s="15">
         <v>0.91265548945375885</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K31" s="15">
         <v>0.93319047454463766</v>
       </c>
-      <c r="L31" s="17">
+      <c r="L31" s="15">
         <v>0.93577790870966615</v>
       </c>
-      <c r="M31" s="17">
+      <c r="M31" s="15">
         <v>0.97007149786224989</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B32" s="15">
         <v>0.73232593862751405</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="15">
         <v>0.74094153790548489</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="15">
         <v>0.72900909438845252</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="15">
         <v>0.73223863657165877</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="15">
         <v>0.7373271889400923</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="15">
         <v>0.74144099056516355</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="15">
         <v>0.76622624231437708</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="15">
         <v>0.77206990057246172</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J32" s="15">
         <v>0.77924546232063108</v>
       </c>
-      <c r="K32" s="17">
+      <c r="K32" s="15">
         <v>0.7867065776345078</v>
       </c>
-      <c r="L32" s="17">
+      <c r="L32" s="15">
         <v>0.79129192882232613</v>
       </c>
-      <c r="M32" s="17">
+      <c r="M32" s="15">
         <v>0.80439474200510119</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B33" s="15">
         <v>0.92838196286472097</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="15">
         <v>0.94675623281186594</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="15">
         <v>0.91722082091263468</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="15">
         <v>0.93036237614550865</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="15">
         <v>0.93453576935657212</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="15">
         <v>0.93698758491449996</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="15">
         <v>0.94312930302744513</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="15">
         <v>0.94926194883478099</v>
       </c>
-      <c r="J33" s="17">
+      <c r="J33" s="15">
         <v>0.95648015303682443</v>
       </c>
-      <c r="K33" s="17">
+      <c r="K33" s="15">
         <v>0.96343754516113489</v>
       </c>
-      <c r="L33" s="17">
+      <c r="L33" s="15">
         <v>0.96725830633070564</v>
       </c>
-      <c r="M33" s="17">
+      <c r="M33" s="15">
         <v>0.98207709305180468</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="17">
+      <c r="B34" s="15">
         <v>0.928191713779428</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="15">
         <v>0.91747795504358021</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="15">
         <v>0.92159606785677717</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="15">
         <v>0.92257226816100601</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="15">
         <v>0.94589481649640561</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="15">
         <v>0.93556714426791865</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="15">
         <v>0.94564303726534049</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="15">
         <v>0.95300284136032332</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J34" s="15">
         <v>0.9645957629237969</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="15">
         <v>0.97698653929656976</v>
       </c>
-      <c r="L34" s="17">
+      <c r="L34" s="15">
         <v>0.97980512764683469</v>
       </c>
-      <c r="M34" s="17">
+      <c r="M34" s="15">
         <v>1.0003705075954057</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B35" s="15">
         <v>0.83500334001336007</v>
       </c>
-      <c r="C35" s="17">
+      <c r="C35" s="15">
         <v>0.83816274725801054</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="15">
         <v>0.83961042076476511</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="15">
         <v>0.83886585336624886</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="15">
         <v>0.83944932124526306</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G35" s="15">
         <v>0.81726840055766559</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="15">
         <v>0.81988955605391978</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I35" s="15">
         <v>0.8212163663591131</v>
       </c>
-      <c r="J35" s="17">
+      <c r="J35" s="15">
         <v>0.84803256445047492</v>
       </c>
-      <c r="K35" s="17">
+      <c r="K35" s="15">
         <v>0.85106382978723405</v>
       </c>
-      <c r="L35" s="17">
+      <c r="L35" s="15">
         <v>0.85050544323483668</v>
       </c>
-      <c r="M35" s="17">
+      <c r="M35" s="15">
         <v>0.85963404150804368</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="15">
         <v>0.74000506319253767</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="15">
         <v>0.74000506319253767</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="15">
         <v>0.73886836476764539</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="15">
         <v>0.73562150337805143</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="15">
         <v>0.73190932028737077</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="15">
         <v>0.72998309512832338</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="15">
         <v>0.7101591140285215</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I36" s="15">
         <v>0.70812041874796661</v>
       </c>
-      <c r="J36" s="17">
+      <c r="J36" s="15">
         <v>0.70840513115067971</v>
       </c>
-      <c r="K36" s="17">
+      <c r="K36" s="15">
         <v>0.70829664229105249</v>
       </c>
-      <c r="L36" s="17">
+      <c r="L36" s="15">
         <v>0.70698385401738795</v>
       </c>
-      <c r="M36" s="17">
+      <c r="M36" s="15">
         <v>0.711333269249255</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B37" s="15">
         <v>0.87636932707355231</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="15">
         <v>0.86168379396183059</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D37" s="15">
         <v>0.87500405094468037</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="15">
         <v>0.88830399736798815</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="15">
         <v>0.89510674976793525</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G37" s="15">
         <v>0.90009000900090008</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="15">
         <v>0.90540223332550884</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I37" s="15">
         <v>0.9083568833266048</v>
       </c>
-      <c r="J37" s="17">
+      <c r="J37" s="15">
         <v>0.91432441584828983</v>
       </c>
-      <c r="K37" s="17">
+      <c r="K37" s="15">
         <v>0.92181631956299082</v>
       </c>
-      <c r="L37" s="17">
+      <c r="L37" s="15">
         <v>0.92538643452034142</v>
       </c>
-      <c r="M37" s="17">
+      <c r="M37" s="15">
         <v>0.93945720250521925</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="16" t="s">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="15">
         <v>1.083779434464186</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="15">
         <v>1.0927514156097884</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="15">
         <v>1.0992305386229639</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="15">
         <v>1.1021307861866274</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="15">
         <v>1.100807258656348</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G38" s="15">
         <v>1.0952538997676735</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H38" s="15">
         <v>1.0936567906144363</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I38" s="15">
         <v>1.0900082576383154</v>
       </c>
-      <c r="J38" s="17">
+      <c r="J38" s="15">
         <v>1.0880316518298714</v>
       </c>
-      <c r="K38" s="17">
+      <c r="K38" s="15">
         <v>1.0884622996239857</v>
       </c>
-      <c r="L38" s="17">
+      <c r="L38" s="15">
         <v>1.0834947631086449</v>
       </c>
-      <c r="M38" s="17">
+      <c r="M38" s="15">
         <v>1.0890729678888487</v>
       </c>
     </row>
     <row r="39" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="14">
         <v>1.1821601289629233</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="14">
         <v>1.1783610069630424</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="14">
         <v>1.1876611634799543</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="14">
         <v>1.1797842376574372</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="14">
         <v>1.1901472807259899</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="14">
         <v>1.1692301151160196</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39" s="14">
         <v>1.1714215733256659</v>
       </c>
-      <c r="I39" s="11">
+      <c r="I39" s="14">
         <v>1.1714964269358978</v>
       </c>
-      <c r="J39" s="11">
+      <c r="J39" s="14">
         <v>1.1747618437353156</v>
       </c>
-      <c r="K39" s="11">
+      <c r="K39" s="14">
         <v>1.1784493748861724</v>
       </c>
-      <c r="L39" s="11">
+      <c r="L39" s="14">
         <v>1.1778689138977825</v>
       </c>
-      <c r="M39" s="11">
+      <c r="M39" s="14">
         <v>1.1911078385724032</v>
       </c>
     </row>
-    <row r="40" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="15">
         <v>0</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="15">
         <v>0</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="15">
         <v>0</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="15">
         <v>0</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="15">
         <v>0</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G40" s="15">
         <v>0</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H40" s="15">
         <v>0</v>
       </c>
-      <c r="I40" s="17">
+      <c r="I40" s="15">
         <v>0</v>
       </c>
-      <c r="J40" s="17">
+      <c r="J40" s="15">
         <v>0</v>
       </c>
-      <c r="K40" s="17">
+      <c r="K40" s="15">
         <v>0</v>
       </c>
-      <c r="L40" s="17">
+      <c r="L40" s="15">
         <v>0</v>
       </c>
-      <c r="M40" s="17">
+      <c r="M40" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="16" t="s">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="15">
         <v>1.66194523135033</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="15">
         <v>1.6758712626166445</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D41" s="15">
         <v>1.6953070817600369</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="15">
         <v>1.7067494181536074</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="15">
         <v>1.7006145402543191</v>
       </c>
-      <c r="G41" s="17">
+      <c r="G41" s="15">
         <v>1.6570966125862268</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H41" s="15">
         <v>1.6527654994811085</v>
       </c>
-      <c r="I41" s="17">
+      <c r="I41" s="15">
         <v>1.6457440293937537</v>
       </c>
-      <c r="J41" s="17">
+      <c r="J41" s="15">
         <v>1.6442965852166265</v>
       </c>
-      <c r="K41" s="17">
+      <c r="K41" s="15">
         <v>1.6412840184739874</v>
       </c>
-      <c r="L41" s="17">
+      <c r="L41" s="15">
         <v>1.6332421756305076</v>
       </c>
-      <c r="M41" s="17">
+      <c r="M41" s="15">
         <v>1.6456180635285114</v>
       </c>
     </row>
-    <row r="42" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B42" s="15">
         <v>1.4715981555969799</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="15">
         <v>1.5010507355148603</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="15">
         <v>1.5346838551258442</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="15">
         <v>1.5605493133583022</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="15">
         <v>1.5417823003391922</v>
       </c>
-      <c r="G42" s="17">
+      <c r="G42" s="15">
         <v>1.5234613040828764</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H42" s="15">
         <v>1.5119443604475356</v>
       </c>
-      <c r="I42" s="17">
+      <c r="I42" s="15">
         <v>1.4989507344858599</v>
       </c>
-      <c r="J42" s="17">
+      <c r="J42" s="15">
         <v>1.4870625557648458</v>
       </c>
-      <c r="K42" s="17">
+      <c r="K42" s="15">
         <v>1.4731879787860931</v>
       </c>
-      <c r="L42" s="17">
+      <c r="L42" s="15">
         <v>1.459996106677049</v>
       </c>
-      <c r="M42" s="17">
+      <c r="M42" s="15">
         <v>1.4675667742882301</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B43" s="15">
         <v>0.70697034546010395</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="15">
         <v>0.69645747844746453</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="15">
         <v>0.68733629321394729</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="15">
         <v>0.6745178109162504</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="15">
         <v>0.69538484061047467</v>
       </c>
-      <c r="G43" s="17">
+      <c r="G43" s="15">
         <v>0.67969725916672785</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H43" s="15">
         <v>0.6835396268243118</v>
       </c>
-      <c r="I43" s="17">
+      <c r="I43" s="15">
         <v>0.68589648524395674</v>
       </c>
-      <c r="J43" s="17">
+      <c r="J43" s="15">
         <v>0.69040155247051804</v>
       </c>
-      <c r="K43" s="17">
+      <c r="K43" s="15">
         <v>0.6959204017529671</v>
       </c>
-      <c r="L43" s="17">
+      <c r="L43" s="15">
         <v>0.69803418480926682</v>
       </c>
-      <c r="M43" s="17">
+      <c r="M43" s="15">
         <v>0.7082695252679938</v>
       </c>
     </row>
-    <row r="44" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="16" t="s">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B44" s="15">
         <v>2.4715768660405342</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="15">
         <v>2.5150905432595572</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="15">
         <v>2.8190671450538187</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="15">
         <v>2.8653295128939824</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="15">
         <v>2.8512182477967856</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="15">
         <v>2.8586278586278584</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="15">
         <v>2.8683181225554102</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I44" s="15">
         <v>2.8810895756940802</v>
       </c>
-      <c r="J44" s="17">
+      <c r="J44" s="15">
         <v>2.8901734104046239</v>
       </c>
-      <c r="K44" s="17">
+      <c r="K44" s="15">
         <v>2.8985507246376807</v>
       </c>
-      <c r="L44" s="17">
+      <c r="L44" s="15">
         <v>2.9092832583972488</v>
       </c>
-      <c r="M44" s="17">
+      <c r="M44" s="15">
         <v>2.9255319148936163</v>
       </c>
     </row>
     <row r="45" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="14">
         <v>2.2579097400581412</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="14">
         <v>2.3226780477891009</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="14">
         <v>2.3882735767382153</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="14">
         <v>2.4125820735990224</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="14">
         <v>2.4562385349625346</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="14">
         <v>2.5075384859546106</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H45" s="14">
         <v>2.5647685215245764</v>
       </c>
-      <c r="I45" s="11">
+      <c r="I45" s="14">
         <v>2.6119156252066391</v>
       </c>
-      <c r="J45" s="11">
+      <c r="J45" s="14">
         <v>2.6598431029258274</v>
       </c>
-      <c r="K45" s="11">
+      <c r="K45" s="14">
         <v>2.7166437414030264</v>
       </c>
-      <c r="L45" s="11">
+      <c r="L45" s="14">
         <v>2.7719298245614037</v>
       </c>
-      <c r="M45" s="11">
+      <c r="M45" s="14">
         <v>2.8606604866743917</v>
       </c>
     </row>
-    <row r="46" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="16" t="s">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="15">
         <v>2.1627017135252036</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="15">
         <v>2.2118247554232244</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D46" s="15">
         <v>2.2559652928416485</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="15">
         <v>2.2877254729432468</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="15">
         <v>2.3148148148148149</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G46" s="15">
         <v>2.350813743218807</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H46" s="15">
         <v>2.3905847738139019</v>
       </c>
-      <c r="I46" s="17">
+      <c r="I46" s="15">
         <v>2.4197301070265236</v>
       </c>
-      <c r="J46" s="17">
+      <c r="J46" s="15">
         <v>2.4429202292586676</v>
       </c>
-      <c r="K46" s="17">
+      <c r="K46" s="15">
         <v>2.4705435195743064</v>
       </c>
-      <c r="L46" s="17">
+      <c r="L46" s="15">
         <v>2.4987986544930325</v>
       </c>
-      <c r="M46" s="17">
+      <c r="M46" s="15">
         <v>2.5477707006369426</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B47" s="15">
         <v>2.4766622213755003</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C47" s="15">
         <v>2.5927403270841642</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D47" s="15">
         <v>2.7351146644224698</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="15">
         <v>2.8602860286028604</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="15">
         <v>2.903730176457449</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G47" s="15">
         <v>2.9518619436875566</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H47" s="15">
         <v>3.0197444831591174</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I47" s="15">
         <v>3.0725596785629876</v>
       </c>
-      <c r="J47" s="17">
+      <c r="J47" s="15">
         <v>3.1137724550898205</v>
       </c>
-      <c r="K47" s="17">
+      <c r="K47" s="15">
         <v>3.1886190826588177</v>
       </c>
-      <c r="L47" s="17">
+      <c r="L47" s="15">
         <v>3.2282095852992301</v>
       </c>
-      <c r="M47" s="17">
+      <c r="M47" s="15">
         <v>3.3290653008962869</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="17">
+      <c r="B48" s="15">
         <v>1.9193857965451055</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C48" s="15">
         <v>1.9744835965978129</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D48" s="15">
         <v>2.0246067590717955</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="15">
         <v>2.0736959642686235</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F48" s="15">
         <v>2.1124471888202794</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G48" s="15">
         <v>2.1455685756725531</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H48" s="15">
         <v>2.17791924945552</v>
       </c>
-      <c r="I48" s="17">
+      <c r="I48" s="15">
         <v>2.2097569267380588</v>
       </c>
-      <c r="J48" s="17">
+      <c r="J48" s="15">
         <v>2.249913464866736</v>
       </c>
-      <c r="K48" s="17">
+      <c r="K48" s="15">
         <v>2.2907488986784141</v>
       </c>
-      <c r="L48" s="17">
+      <c r="L48" s="15">
         <v>2.3368685960812514</v>
       </c>
-      <c r="M48" s="17">
+      <c r="M48" s="15">
         <v>2.3963133640552998</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="16" t="s">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="17">
+      <c r="B49" s="15">
         <v>2.4589444102924385</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C49" s="15">
         <v>2.5247971145175834</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D49" s="15">
         <v>2.5930727912576401</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E49" s="15">
         <v>2.5553662691652468</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F49" s="15">
         <v>2.6213592233009706</v>
       </c>
-      <c r="G49" s="17">
+      <c r="G49" s="15">
         <v>2.7048687637747948</v>
       </c>
-      <c r="H49" s="17">
+      <c r="H49" s="15">
         <v>2.797347699958558</v>
       </c>
-      <c r="I49" s="17">
+      <c r="I49" s="15">
         <v>2.8763183125599232</v>
       </c>
-      <c r="J49" s="17">
+      <c r="J49" s="15">
         <v>2.9654036243822075</v>
       </c>
-      <c r="K49" s="17">
+      <c r="K49" s="15">
         <v>3.0667878237164925</v>
       </c>
-      <c r="L49" s="17">
+      <c r="L49" s="15">
         <v>3.1746031746031744</v>
       </c>
-      <c r="M49" s="17">
+      <c r="M49" s="15">
         <v>3.3411706471971292</v>
       </c>
     </row>
     <row r="50" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50" s="14">
         <v>0.87759633932977432</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="14">
         <v>0.8986796322326428</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="14">
         <v>0.91815474438807354</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E50" s="14">
         <v>0.93406904948775427</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="14">
         <v>0.94622489415239031</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G50" s="14">
         <v>0.94709946980701709</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H50" s="14">
         <v>0.95937908738678712</v>
       </c>
-      <c r="I50" s="11">
+      <c r="I50" s="14">
         <v>0.96943626190364862</v>
       </c>
-      <c r="J50" s="11">
+      <c r="J50" s="14">
         <v>0.983570265184459</v>
       </c>
-      <c r="K50" s="11">
+      <c r="K50" s="14">
         <v>0.99963678791950195</v>
       </c>
-      <c r="L50" s="11">
+      <c r="L50" s="14">
         <v>1.0085679632115918</v>
       </c>
-      <c r="M50" s="11">
+      <c r="M50" s="14">
         <v>1.0324919575184337</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="17">
+      <c r="B51" s="15">
         <v>0.48665183537263623</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C51" s="15">
         <v>0.49561030869442085</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D51" s="15">
         <v>0.50156440325778018</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="15">
         <v>0.50380250941630877</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="15">
         <v>0.50318685005031871</v>
       </c>
-      <c r="G51" s="17">
+      <c r="G51" s="15">
         <v>0.5026569007611662</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H51" s="15">
         <v>0.5030542579949695</v>
       </c>
-      <c r="I51" s="17">
+      <c r="I51" s="15">
         <v>0.50322302365148208</v>
       </c>
-      <c r="J51" s="17">
+      <c r="J51" s="15">
         <v>0.50451662502402461</v>
       </c>
-      <c r="K51" s="17">
+      <c r="K51" s="15">
         <v>0.50604848426430193</v>
       </c>
-      <c r="L51" s="17">
+      <c r="L51" s="15">
         <v>0.50558551617873648</v>
       </c>
-      <c r="M51" s="17">
+      <c r="M51" s="15">
         <v>0.51094890510948898</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="16" t="s">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="17">
+      <c r="B52" s="15">
         <v>1.0311493018259936</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="15">
         <v>1.0488135296945331</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D52" s="15">
         <v>1.0623229461756374</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E52" s="15">
         <v>1.0677581527783959</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F52" s="15">
         <v>1.0846477154607495</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G52" s="15">
         <v>1.1071132023249379</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H52" s="15">
         <v>1.1300499105377155</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I52" s="15">
         <v>1.1513552410650039</v>
       </c>
-      <c r="J52" s="17">
+      <c r="J52" s="15">
         <v>1.1798829949363356</v>
       </c>
-      <c r="K52" s="17">
+      <c r="K52" s="15">
         <v>1.2076686962210035</v>
       </c>
-      <c r="L52" s="17">
+      <c r="L52" s="15">
         <v>1.2269938650306751</v>
       </c>
-      <c r="M52" s="17">
+      <c r="M52" s="15">
         <v>1.2622278321236986</v>
       </c>
     </row>
-    <row r="53" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="16" t="s">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="17">
+      <c r="B53" s="15">
         <v>0.59854999156971844</v>
       </c>
-      <c r="C53" s="17">
+      <c r="C53" s="15">
         <v>0.62182518829917688</v>
       </c>
-      <c r="D53" s="17">
+      <c r="D53" s="15">
         <v>0.64234210597740049</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E53" s="15">
         <v>0.6585598872100249</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F53" s="15">
         <v>0.66509292565947231</v>
       </c>
-      <c r="G53" s="17">
+      <c r="G53" s="15">
         <v>0.66222659502005599</v>
       </c>
-      <c r="H53" s="17">
+      <c r="H53" s="15">
         <v>0.67164322311987867</v>
       </c>
-      <c r="I53" s="17">
+      <c r="I53" s="15">
         <v>0.67790701052692748</v>
       </c>
-      <c r="J53" s="17">
+      <c r="J53" s="15">
         <v>0.68752148504640775</v>
       </c>
-      <c r="K53" s="17">
+      <c r="K53" s="15">
         <v>0.69871436556735611</v>
       </c>
-      <c r="L53" s="17">
+      <c r="L53" s="15">
         <v>0.70322075103976212</v>
       </c>
-      <c r="M53" s="17">
+      <c r="M53" s="15">
         <v>0.72099538562953203</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="16" t="s">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="17">
+      <c r="B54" s="15">
         <v>1.1986985558536447</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C54" s="15">
         <v>1.2200081333875559</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D54" s="15">
         <v>1.2362030905077261</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E54" s="15">
         <v>1.2746027981977708</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F54" s="15">
         <v>1.2866161993955894</v>
       </c>
-      <c r="G54" s="17">
+      <c r="G54" s="15">
         <v>1.297721442583371</v>
       </c>
-      <c r="H54" s="17">
+      <c r="H54" s="15">
         <v>1.309697855750487</v>
       </c>
-      <c r="I54" s="17">
+      <c r="I54" s="15">
         <v>1.3203955045139097</v>
       </c>
-      <c r="J54" s="17">
+      <c r="J54" s="15">
         <v>1.3360676112353962</v>
       </c>
-      <c r="K54" s="17">
+      <c r="K54" s="15">
         <v>1.3536485550588677</v>
       </c>
-      <c r="L54" s="17">
+      <c r="L54" s="15">
         <v>1.3652960787426573</v>
       </c>
-      <c r="M54" s="17">
+      <c r="M54" s="15">
         <v>1.3906406649202805</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="17">
+      <c r="B55" s="15">
         <v>3.0229156509019992</v>
       </c>
-      <c r="C55" s="17">
+      <c r="C55" s="15">
         <v>3.1212243254128071</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D55" s="15">
         <v>3.2117695814338996</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E55" s="15">
         <v>3.2741867342627797</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F55" s="15">
         <v>3.271422541156606</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G55" s="15">
         <v>3.1598904571308197</v>
       </c>
-      <c r="H55" s="17">
+      <c r="H55" s="15">
         <v>3.1552376945729916</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I55" s="15">
         <v>3.1542424561034594</v>
       </c>
-      <c r="J55" s="17">
+      <c r="J55" s="15">
         <v>3.1648908112670116</v>
       </c>
-      <c r="K55" s="17">
+      <c r="K55" s="15">
         <v>3.1779661016949152</v>
       </c>
-      <c r="L55" s="17">
+      <c r="L55" s="15">
         <v>3.1756113051762469</v>
       </c>
-      <c r="M55" s="17">
+      <c r="M55" s="15">
         <v>3.2037590773173856</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="16" t="s">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="17">
+      <c r="B56" s="15">
         <v>0.68934369725926403</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C56" s="15">
         <v>0.70523576761265538</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D56" s="15">
         <v>0.71727140065791106</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E56" s="15">
         <v>0.72413104274870155</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F56" s="15">
         <v>0.73812008450202349</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G56" s="15">
         <v>0.72689511941848384</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H56" s="15">
         <v>0.74317868138868237</v>
       </c>
-      <c r="I56" s="17">
+      <c r="I56" s="15">
         <v>0.75800644305476594</v>
       </c>
-      <c r="J56" s="17">
+      <c r="J56" s="15">
         <v>0.7769145394006659</v>
       </c>
-      <c r="K56" s="17">
+      <c r="K56" s="15">
         <v>0.79949745874022049</v>
       </c>
-      <c r="L56" s="17">
+      <c r="L56" s="15">
         <v>0.81596969255427665</v>
       </c>
-      <c r="M56" s="17">
+      <c r="M56" s="15">
         <v>0.84671444555323705</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="16" t="s">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="17">
+      <c r="B57" s="15">
         <v>1.0247651579846289</v>
       </c>
-      <c r="C57" s="17">
+      <c r="C57" s="15">
         <v>1.0013060513713541</v>
       </c>
-      <c r="D57" s="17">
+      <c r="D57" s="15">
         <v>1.0154973729524481</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E57" s="15">
         <v>1.0230406547460189</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57" s="15">
         <v>1.0290827740492168</v>
       </c>
-      <c r="G57" s="17">
+      <c r="G57" s="15">
         <v>1.03491720662347</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H57" s="15">
         <v>1.0411479788149018</v>
       </c>
-      <c r="I57" s="17">
+      <c r="I57" s="15">
         <v>1.0487437873329988</v>
       </c>
-      <c r="J57" s="17">
+      <c r="J57" s="15">
         <v>1.0594196222938737</v>
       </c>
-      <c r="K57" s="17">
+      <c r="K57" s="15">
         <v>1.070265239646347</v>
       </c>
-      <c r="L57" s="17">
+      <c r="L57" s="15">
         <v>1.0767286175740833</v>
       </c>
-      <c r="M57" s="17">
+      <c r="M57" s="15">
         <v>1.0933637573683208</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="16" t="s">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="17">
+      <c r="B58" s="15">
         <v>1.3213254981049412</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="15">
         <v>1.3645994182497219</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D58" s="15">
         <v>1.4020070838252656</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E58" s="15">
         <v>1.4278199443901707</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="15">
         <v>1.4880384600709682</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G58" s="15">
         <v>1.5146219270651291</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H58" s="15">
         <v>1.5474962304579005</v>
       </c>
-      <c r="I58" s="17">
+      <c r="I58" s="15">
         <v>1.5741039715854055</v>
       </c>
-      <c r="J58" s="17">
+      <c r="J58" s="15">
         <v>1.606988339033335</v>
       </c>
-      <c r="K58" s="17">
+      <c r="K58" s="15">
         <v>1.6484909967030181</v>
       </c>
-      <c r="L58" s="17">
+      <c r="L58" s="15">
         <v>1.6741071428571432</v>
       </c>
-      <c r="M58" s="17">
+      <c r="M58" s="15">
         <v>1.7294133297858192</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="16" t="s">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="17">
+      <c r="B59" s="15">
         <v>1.0290632406136959</v>
       </c>
-      <c r="C59" s="17">
+      <c r="C59" s="15">
         <v>1.0494514231197329</v>
       </c>
-      <c r="D59" s="17">
+      <c r="D59" s="15">
         <v>1.0642758086883608</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E59" s="15">
         <v>1.0723337882628192</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F59" s="15">
         <v>1.0824285761144095</v>
       </c>
-      <c r="G59" s="17">
+      <c r="G59" s="15">
         <v>1.0967463192528832</v>
       </c>
-      <c r="H59" s="17">
+      <c r="H59" s="15">
         <v>1.1128346934646254</v>
       </c>
-      <c r="I59" s="17">
+      <c r="I59" s="15">
         <v>1.1283208534208637</v>
       </c>
-      <c r="J59" s="17">
+      <c r="J59" s="15">
         <v>1.1485052030766019</v>
       </c>
-      <c r="K59" s="17">
+      <c r="K59" s="15">
         <v>1.1709601873536299</v>
       </c>
-      <c r="L59" s="17">
+      <c r="L59" s="15">
         <v>1.1867942170754513</v>
       </c>
-      <c r="M59" s="17">
+      <c r="M59" s="15">
         <v>1.2190616919098634</v>
       </c>
     </row>
     <row r="60" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="11">
+      <c r="B60" s="14">
         <v>1.4701488077451743</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="14">
         <v>1.490556777488957</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60" s="14">
         <v>1.5085176055042495</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E60" s="14">
         <v>1.5215428196786205</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F60" s="14">
         <v>1.5474756802965164</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G60" s="14">
         <v>1.5560525403975178</v>
       </c>
-      <c r="H60" s="11">
+      <c r="H60" s="14">
         <v>1.5715867299543158</v>
       </c>
-      <c r="I60" s="11">
+      <c r="I60" s="14">
         <v>1.5971469439330868</v>
       </c>
-      <c r="J60" s="11">
+      <c r="J60" s="14">
         <v>1.6154250384393307</v>
       </c>
-      <c r="K60" s="11">
+      <c r="K60" s="14">
         <v>1.6435042139448046</v>
       </c>
-      <c r="L60" s="11">
+      <c r="L60" s="14">
         <v>1.6544239295877174</v>
       </c>
-      <c r="M60" s="11">
+      <c r="M60" s="14">
         <v>1.6921044116060833</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="16" t="s">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="17">
+      <c r="B61" s="15">
         <v>1.955671447196871</v>
       </c>
-      <c r="C61" s="17">
+      <c r="C61" s="15">
         <v>1.9145626420964463</v>
       </c>
-      <c r="D61" s="17">
+      <c r="D61" s="15">
         <v>1.9287565547586039</v>
       </c>
-      <c r="E61" s="17">
+      <c r="E61" s="15">
         <v>1.937632455343627</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F61" s="15">
         <v>1.9415119524329572</v>
       </c>
-      <c r="G61" s="17">
+      <c r="G61" s="15">
         <v>1.9462352511859871</v>
       </c>
-      <c r="H61" s="17">
+      <c r="H61" s="15">
         <v>1.9552731272149579</v>
       </c>
-      <c r="I61" s="17">
+      <c r="I61" s="15">
         <v>2.0239190432382705</v>
       </c>
-      <c r="J61" s="17">
+      <c r="J61" s="15">
         <v>2.0308942088743924</v>
       </c>
-      <c r="K61" s="17">
+      <c r="K61" s="15">
         <v>2.1073509359117391</v>
       </c>
-      <c r="L61" s="17">
+      <c r="L61" s="15">
         <v>2.1128511061396971</v>
       </c>
-      <c r="M61" s="17">
+      <c r="M61" s="15">
         <v>2.1359467269757508</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="16" t="s">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B62" s="17">
+      <c r="B62" s="15">
         <v>1.8661938975459553</v>
       </c>
-      <c r="C62" s="17">
+      <c r="C62" s="15">
         <v>1.8857250612860645</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D62" s="15">
         <v>1.9022256039566294</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E62" s="15">
         <v>1.9173617102866454</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F62" s="15">
         <v>1.914058761603981</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G62" s="15">
         <v>1.8115942028985506</v>
       </c>
-      <c r="H62" s="17">
+      <c r="H62" s="15">
         <v>1.8088347296268086</v>
       </c>
-      <c r="I62" s="17">
+      <c r="I62" s="15">
         <v>1.8041971322761368</v>
       </c>
-      <c r="J62" s="17">
+      <c r="J62" s="15">
         <v>1.8014601308428932</v>
       </c>
-      <c r="K62" s="17">
+      <c r="K62" s="15">
         <v>1.8035121025154244</v>
       </c>
-      <c r="L62" s="17">
+      <c r="L62" s="15">
         <v>1.7946538207235285</v>
       </c>
-      <c r="M62" s="17">
+      <c r="M62" s="15">
         <v>1.8031697826705888</v>
       </c>
     </row>
-    <row r="63" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="16" t="s">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B63" s="17">
+      <c r="B63" s="15">
         <v>1.5071430087669</v>
       </c>
-      <c r="C63" s="17">
+      <c r="C63" s="15">
         <v>1.5504209823639614</v>
       </c>
-      <c r="D63" s="17">
+      <c r="D63" s="15">
         <v>1.5487642606286673</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E63" s="15">
         <v>1.5632912785961204</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F63" s="15">
         <v>1.6075734571760294</v>
       </c>
-      <c r="G63" s="17">
+      <c r="G63" s="15">
         <v>1.6307302047472367</v>
       </c>
-      <c r="H63" s="17">
+      <c r="H63" s="15">
         <v>1.6552865714876888</v>
       </c>
-      <c r="I63" s="17">
+      <c r="I63" s="15">
         <v>1.67640690120841</v>
       </c>
-      <c r="J63" s="17">
+      <c r="J63" s="15">
         <v>1.7038193951441145</v>
       </c>
-      <c r="K63" s="17">
+      <c r="K63" s="15">
         <v>1.7357344326318072</v>
       </c>
-      <c r="L63" s="17">
+      <c r="L63" s="15">
         <v>1.7549846438843659</v>
       </c>
-      <c r="M63" s="17">
+      <c r="M63" s="15">
         <v>1.794750355211008</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="16" t="s">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="17">
+      <c r="B64" s="15">
         <v>1.3256959903949574</v>
       </c>
-      <c r="C64" s="17">
+      <c r="C64" s="15">
         <v>1.3389248181083264</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D64" s="15">
         <v>1.375901342777792</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E64" s="15">
         <v>1.3815688481809345</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F64" s="15">
         <v>1.4053197741267853</v>
       </c>
-      <c r="G64" s="17">
+      <c r="G64" s="15">
         <v>1.4029538555722776</v>
       </c>
-      <c r="H64" s="17">
+      <c r="H64" s="15">
         <v>1.4006672269335576</v>
       </c>
-      <c r="I64" s="17">
+      <c r="I64" s="15">
         <v>1.4222222222222223</v>
       </c>
-      <c r="J64" s="17">
+      <c r="J64" s="15">
         <v>1.4215001903794897</v>
       </c>
-      <c r="K64" s="17">
+      <c r="K64" s="15">
         <v>1.4212837237633562</v>
       </c>
-      <c r="L64" s="17">
+      <c r="L64" s="15">
         <v>1.4190507564047334</v>
       </c>
-      <c r="M64" s="17">
+      <c r="M64" s="15">
         <v>1.431053868956353</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="16" t="s">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="17">
+      <c r="B65" s="15">
         <v>1.0060737042143308</v>
       </c>
-      <c r="C65" s="17">
+      <c r="C65" s="15">
         <v>1.0256020663982375</v>
       </c>
-      <c r="D65" s="17">
+      <c r="D65" s="15">
         <v>1.0436395964593561</v>
       </c>
-      <c r="E65" s="17">
+      <c r="E65" s="15">
         <v>1.0588235294117647</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F65" s="15">
         <v>1.0620304448727531</v>
       </c>
-      <c r="G65" s="17">
+      <c r="G65" s="15">
         <v>1.0654670297146915</v>
       </c>
-      <c r="H65" s="17">
+      <c r="H65" s="15">
         <v>1.0677845448074033</v>
       </c>
-      <c r="I65" s="17">
+      <c r="I65" s="15">
         <v>1.06973058637084</v>
       </c>
-      <c r="J65" s="17">
+      <c r="J65" s="15">
         <v>1.0741565881604074</v>
       </c>
-      <c r="K65" s="17">
+      <c r="K65" s="15">
         <v>1.0807348997318176</v>
       </c>
-      <c r="L65" s="17">
+      <c r="L65" s="15">
         <v>1.0800864069125529</v>
       </c>
-      <c r="M65" s="17">
+      <c r="M65" s="15">
         <v>1.133924594014498</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="16" t="s">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B66" s="17">
+      <c r="B66" s="15">
         <v>1.6270240954520803</v>
       </c>
-      <c r="C66" s="17">
+      <c r="C66" s="15">
         <v>1.6554986204178166</v>
       </c>
-      <c r="D66" s="17">
+      <c r="D66" s="15">
         <v>1.6794625719769674</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E66" s="15">
         <v>1.6984107727769018</v>
       </c>
-      <c r="F66" s="17">
+      <c r="F66" s="15">
         <v>1.7513134851138354</v>
       </c>
-      <c r="G66" s="17">
+      <c r="G66" s="15">
         <v>1.8174737115409578</v>
       </c>
-      <c r="H66" s="17">
+      <c r="H66" s="15">
         <v>1.8879798615481436</v>
       </c>
-      <c r="I66" s="17">
+      <c r="I66" s="15">
         <v>1.9532158303492535</v>
       </c>
-      <c r="J66" s="17">
+      <c r="J66" s="15">
         <v>2.0433978787583928</v>
       </c>
-      <c r="K66" s="17">
+      <c r="K66" s="15">
         <v>2.1450459652706844</v>
       </c>
-      <c r="L66" s="17">
+      <c r="L66" s="15">
         <v>2.217060810810811</v>
       </c>
-      <c r="M66" s="17">
+      <c r="M66" s="15">
         <v>2.341267629187803</v>
       </c>
     </row>
     <row r="67" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B67" s="11">
+      <c r="B67" s="14">
         <v>0.8113196836089771</v>
       </c>
-      <c r="C67" s="11">
+      <c r="C67" s="14">
         <v>0.81841213811950242</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D67" s="14">
         <v>0.82194254004000422</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E67" s="14">
         <v>0.82126095507678909</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F67" s="14">
         <v>0.8160500824281135</v>
       </c>
-      <c r="G67" s="11">
+      <c r="G67" s="14">
         <v>0.80832811580117936</v>
       </c>
-      <c r="H67" s="11">
+      <c r="H67" s="14">
         <v>0.80759840714596587</v>
       </c>
-      <c r="I67" s="11">
+      <c r="I67" s="14">
         <v>0.80275017119167913</v>
       </c>
-      <c r="J67" s="11">
+      <c r="J67" s="14">
         <v>0.80108596783651387</v>
       </c>
-      <c r="K67" s="11">
+      <c r="K67" s="14">
         <v>0.80139830186463279</v>
       </c>
-      <c r="L67" s="11">
+      <c r="L67" s="14">
         <v>0.79570684147827697</v>
       </c>
-      <c r="M67" s="11">
+      <c r="M67" s="14">
         <v>0.80322764023687154</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="16" t="s">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B68" s="17">
+      <c r="B68" s="15">
         <v>0.32945672585905839</v>
       </c>
-      <c r="C68" s="17">
+      <c r="C68" s="15">
         <v>0.32799521126991543</v>
       </c>
-      <c r="D68" s="17">
+      <c r="D68" s="15">
         <v>0.3260594895538691</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E68" s="15">
         <v>0.31441723973911428</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F68" s="15">
         <v>0.31197254641591543</v>
       </c>
-      <c r="G68" s="17">
+      <c r="G68" s="15">
         <v>0.30127407219478164</v>
       </c>
-      <c r="H68" s="17">
+      <c r="H68" s="15">
         <v>0.29968690604815496</v>
       </c>
-      <c r="I68" s="17">
+      <c r="I68" s="15">
         <v>0.29724888336110267</v>
       </c>
-      <c r="J68" s="17">
+      <c r="J68" s="15">
         <v>0.29618313470876623</v>
       </c>
-      <c r="K68" s="17">
+      <c r="K68" s="15">
         <v>0.30307740130556415</v>
       </c>
-      <c r="L68" s="17">
+      <c r="L68" s="15">
         <v>0.29983393812657605</v>
       </c>
-      <c r="M68" s="17">
+      <c r="M68" s="15">
         <v>0.30282324440165231</v>
       </c>
     </row>
-    <row r="69" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="16" t="s">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B69" s="17">
+      <c r="B69" s="15">
         <v>0.76709005280433851</v>
       </c>
-      <c r="C69" s="17">
+      <c r="C69" s="15">
         <v>0.77911253646427869</v>
       </c>
-      <c r="D69" s="17">
+      <c r="D69" s="15">
         <v>0.79067372756693144</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E69" s="15">
         <v>0.79738901457552946</v>
       </c>
-      <c r="F69" s="17">
+      <c r="F69" s="15">
         <v>0.7915615853321798</v>
       </c>
-      <c r="G69" s="17">
+      <c r="G69" s="15">
         <v>0.78596234692012434</v>
       </c>
-      <c r="H69" s="17">
+      <c r="H69" s="15">
         <v>0.78287149983614324</v>
       </c>
-      <c r="I69" s="17">
+      <c r="I69" s="15">
         <v>0.77780189566601565</v>
       </c>
-      <c r="J69" s="17">
+      <c r="J69" s="15">
         <v>0.7755573190967463</v>
       </c>
-      <c r="K69" s="17">
+      <c r="K69" s="15">
         <v>0.77283919552831648</v>
       </c>
-      <c r="L69" s="17">
+      <c r="L69" s="15">
         <v>0.76736383753301451</v>
       </c>
-      <c r="M69" s="17">
+      <c r="M69" s="15">
         <v>0.76873569794050356</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="16" t="s">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B70" s="17">
+      <c r="B70" s="15">
         <v>0.77127431656525836</v>
       </c>
-      <c r="C70" s="17">
+      <c r="C70" s="15">
         <v>0.7859993859379798</v>
       </c>
-      <c r="D70" s="17">
+      <c r="D70" s="15">
         <v>0.79949816115422934</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E70" s="15">
         <v>0.79651982108939401</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F70" s="15">
         <v>0.79678344651744337</v>
       </c>
-      <c r="G70" s="17">
+      <c r="G70" s="15">
         <v>0.79699838148020996</v>
       </c>
-      <c r="H70" s="17">
+      <c r="H70" s="15">
         <v>0.79912465115135423</v>
       </c>
-      <c r="I70" s="17">
+      <c r="I70" s="15">
         <v>0.79970472440944884</v>
       </c>
-      <c r="J70" s="17">
+      <c r="J70" s="15">
         <v>0.8045749368718127</v>
       </c>
-      <c r="K70" s="17">
+      <c r="K70" s="15">
         <v>0.80877961377662755</v>
       </c>
-      <c r="L70" s="17">
+      <c r="L70" s="15">
         <v>0.80917227900260191</v>
       </c>
-      <c r="M70" s="17">
+      <c r="M70" s="15">
         <v>0.81995130750696965</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="16" t="s">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B71" s="17">
+      <c r="B71" s="15">
         <v>1.4588601439408675</v>
       </c>
-      <c r="C71" s="17">
+      <c r="C71" s="15">
         <v>1.4911277896515731</v>
       </c>
-      <c r="D71" s="17">
+      <c r="D71" s="15">
         <v>1.5213753232922564</v>
       </c>
-      <c r="E71" s="17">
+      <c r="E71" s="15">
         <v>1.545993300695697</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F71" s="15">
         <v>1.5306903413439461</v>
       </c>
-      <c r="G71" s="17">
+      <c r="G71" s="15">
         <v>1.514080952861613</v>
       </c>
-      <c r="H71" s="17">
+      <c r="H71" s="15">
         <v>1.5012009607686148</v>
       </c>
-      <c r="I71" s="17">
+      <c r="I71" s="15">
         <v>1.48397309062129</v>
       </c>
-      <c r="J71" s="17">
+      <c r="J71" s="15">
         <v>1.4719591776654728</v>
       </c>
-      <c r="K71" s="17">
+      <c r="K71" s="15">
         <v>1.455462837182224</v>
       </c>
-      <c r="L71" s="17">
+      <c r="L71" s="15">
         <v>1.4338973329509608</v>
       </c>
-      <c r="M71" s="17">
+      <c r="M71" s="15">
         <v>1.4343086632243258</v>
       </c>
     </row>
-    <row r="72" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="16" t="s">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B72" s="17">
+      <c r="B72" s="15">
         <v>1.5297608010383801</v>
       </c>
-      <c r="C72" s="17">
+      <c r="C72" s="15">
         <v>1.5434985968194572</v>
       </c>
-      <c r="D72" s="17">
+      <c r="D72" s="15">
         <v>1.5554298642533937</v>
       </c>
-      <c r="E72" s="17">
+      <c r="E72" s="15">
         <v>1.5596200198497094</v>
       </c>
-      <c r="F72" s="17">
+      <c r="F72" s="15">
         <v>1.5440041173443129</v>
       </c>
-      <c r="G72" s="17">
+      <c r="G72" s="15">
         <v>1.5301154541660871</v>
       </c>
-      <c r="H72" s="17">
+      <c r="H72" s="15">
         <v>1.5209475964419044</v>
       </c>
-      <c r="I72" s="17">
+      <c r="I72" s="15">
         <v>1.50760656037279</v>
       </c>
-      <c r="J72" s="17">
+      <c r="J72" s="15">
         <v>1.4961236795575101</v>
       </c>
-      <c r="K72" s="17">
+      <c r="K72" s="15">
         <v>1.4840798704803022</v>
       </c>
-      <c r="L72" s="17">
+      <c r="L72" s="15">
         <v>1.4676450967311541</v>
       </c>
-      <c r="M72" s="17">
+      <c r="M72" s="15">
         <v>1.469213303058635</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="16" t="s">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B73" s="17">
+      <c r="B73" s="15">
         <v>0.96276342276984128</v>
       </c>
-      <c r="C73" s="17">
+      <c r="C73" s="15">
         <v>0.96268852650310688</v>
       </c>
-      <c r="D73" s="17">
+      <c r="D73" s="15">
         <v>0.96123970793848057</v>
       </c>
-      <c r="E73" s="17">
+      <c r="E73" s="15">
         <v>0.97465886939571145</v>
       </c>
-      <c r="F73" s="17">
+      <c r="F73" s="15">
         <v>0.96741441734832667</v>
       </c>
-      <c r="G73" s="17">
+      <c r="G73" s="15">
         <v>0.96020382940695526</v>
       </c>
-      <c r="H73" s="17">
+      <c r="H73" s="15">
         <v>0.9644386872287517</v>
       </c>
-      <c r="I73" s="17">
+      <c r="I73" s="15">
         <v>0.9581603321622485</v>
       </c>
-      <c r="J73" s="17">
+      <c r="J73" s="15">
         <v>0.95525295472850202</v>
       </c>
-      <c r="K73" s="17">
+      <c r="K73" s="15">
         <v>0.9516700877029296</v>
       </c>
-      <c r="L73" s="17">
+      <c r="L73" s="15">
         <v>0.94598605134292924</v>
       </c>
-      <c r="M73" s="17">
+      <c r="M73" s="15">
         <v>0.94891665348726872</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="16" t="s">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B74" s="17">
+      <c r="B74" s="15">
         <v>1.8764743727214239</v>
       </c>
-      <c r="C74" s="17">
+      <c r="C74" s="15">
         <v>1.9310196856729067</v>
       </c>
-      <c r="D74" s="17">
+      <c r="D74" s="15">
         <v>1.928743637824806</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E74" s="15">
         <v>1.9188742604338789</v>
       </c>
-      <c r="F74" s="17">
+      <c r="F74" s="15">
         <v>1.9014419267944858</v>
       </c>
-      <c r="G74" s="17">
+      <c r="G74" s="15">
         <v>1.8867924528301889</v>
       </c>
-      <c r="H74" s="17">
+      <c r="H74" s="15">
         <v>1.8786202577884465</v>
       </c>
-      <c r="I74" s="17">
+      <c r="I74" s="15">
         <v>1.8650917003419336</v>
       </c>
-      <c r="J74" s="17">
+      <c r="J74" s="15">
         <v>1.8542364151429309</v>
       </c>
-      <c r="K74" s="17">
+      <c r="K74" s="15">
         <v>1.8436955853733483</v>
       </c>
-      <c r="L74" s="17">
+      <c r="L74" s="15">
         <v>1.8293612480308961</v>
       </c>
-      <c r="M74" s="17">
+      <c r="M74" s="15">
         <v>1.8846780766096167</v>
       </c>
     </row>
     <row r="75" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B75" s="11">
+      <c r="B75" s="14">
         <v>0.85351180628665957</v>
       </c>
-      <c r="C75" s="11">
+      <c r="C75" s="14">
         <v>0.8566910590890392</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D75" s="14">
         <v>0.8556133536257563</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E75" s="14">
         <v>0.85656026621589865</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F75" s="14">
         <v>0.85961629163053233</v>
       </c>
-      <c r="G75" s="11">
+      <c r="G75" s="14">
         <v>0.86299397813494017</v>
       </c>
-      <c r="H75" s="11">
+      <c r="H75" s="14">
         <v>0.86778224041407792</v>
       </c>
-      <c r="I75" s="11">
+      <c r="I75" s="14">
         <v>0.87174205692552786</v>
       </c>
-      <c r="J75" s="11">
+      <c r="J75" s="14">
         <v>0.87842381228160871</v>
       </c>
-      <c r="K75" s="11">
+      <c r="K75" s="14">
         <v>0.8858437465702953</v>
       </c>
-      <c r="L75" s="11">
+      <c r="L75" s="14">
         <v>0.89341587918813292</v>
       </c>
-      <c r="M75" s="11">
+      <c r="M75" s="14">
         <v>0.91021961044197552</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="15">
         <v>0.75594122556971199</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="15">
         <v>0.75902528502980748</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="15">
         <v>0.76150587787349477</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E76" s="15">
         <v>0.76241303726293719</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F76" s="15">
         <v>0.76610007182188167</v>
       </c>
-      <c r="G76" s="4">
+      <c r="G76" s="15">
         <v>0.77000818133692661</v>
       </c>
-      <c r="H76" s="4">
+      <c r="H76" s="15">
         <v>0.77518753886031289</v>
       </c>
-      <c r="I76" s="4">
+      <c r="I76" s="15">
         <v>0.77901211526133418</v>
       </c>
-      <c r="J76" s="4">
+      <c r="J76" s="15">
         <v>0.78564238540669273</v>
       </c>
-      <c r="K76" s="4">
+      <c r="K76" s="15">
         <v>0.79304106465762936</v>
       </c>
-      <c r="L76" s="4">
+      <c r="L76" s="15">
         <v>0.79622456850434187</v>
       </c>
-      <c r="M76" s="4">
+      <c r="M76" s="15">
         <v>0.80831894918536606</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B77" s="15">
         <v>0.99947754582831705</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="15">
         <v>1.0017302613605319</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="15">
         <v>1.0041306282662772</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E77" s="15">
         <v>1.0042222982996691</v>
       </c>
-      <c r="F77" s="5">
+      <c r="F77" s="15">
         <v>1.0083417361811349</v>
       </c>
-      <c r="G77" s="5">
+      <c r="G77" s="15">
         <v>1.0135679896800349</v>
       </c>
-      <c r="H77" s="5">
+      <c r="H77" s="15">
         <v>1.0206211871680082</v>
       </c>
-      <c r="I77" s="5">
+      <c r="I77" s="15">
         <v>1.0291675437980961</v>
       </c>
-      <c r="J77" s="5">
+      <c r="J77" s="15">
         <v>1.0389855722685306</v>
       </c>
-      <c r="K77" s="5">
+      <c r="K77" s="15">
         <v>1.0473447430434886</v>
       </c>
-      <c r="L77" s="5">
+      <c r="L77" s="15">
         <v>1.0766838138533317</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="15">
         <v>1.0939855107696796</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A78" s="16" t="s">
+      <c r="A78" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78" s="15">
         <v>1.16256539430343</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="15">
         <v>1.1627061986774216</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="15">
         <v>1.1634953338989213</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E78" s="15">
         <v>1.1621150493898895</v>
       </c>
-      <c r="F78" s="5">
+      <c r="F78" s="15">
         <v>1.1630724497213472</v>
       </c>
-      <c r="G78" s="5">
+      <c r="G78" s="15">
         <v>1.164398515391893</v>
       </c>
-      <c r="H78" s="5">
+      <c r="H78" s="15">
         <v>1.1652748106428432</v>
       </c>
-      <c r="I78" s="5">
+      <c r="I78" s="15">
         <v>1.1666059059423988</v>
       </c>
-      <c r="J78" s="5">
+      <c r="J78" s="15">
         <v>1.1704747738301349</v>
       </c>
-      <c r="K78" s="5">
+      <c r="K78" s="15">
         <v>1.1776540150641577</v>
       </c>
-      <c r="L78" s="5">
+      <c r="L78" s="15">
         <v>1.1796800117968</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="15">
         <v>1.1923984598186559</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="19" t="s">
+      <c r="A79" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B79" s="16">
         <v>0.70822849687820333</v>
       </c>
-      <c r="C79" s="6">
+      <c r="C79" s="16">
         <v>0.71310614021918639</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D79" s="16">
         <v>0.69813955243594106</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E79" s="16">
         <v>0.70061161500444991</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F79" s="16">
         <v>0.7021938814241252</v>
       </c>
-      <c r="G79" s="6">
+      <c r="G79" s="16">
         <v>0.70381008540830503</v>
       </c>
-      <c r="H79" s="6">
+      <c r="H79" s="16">
         <v>0.70759227385733425</v>
       </c>
-      <c r="I79" s="6">
+      <c r="I79" s="16">
         <v>0.7099002302379126</v>
       </c>
-      <c r="J79" s="6">
+      <c r="J79" s="16">
         <v>0.71527992576554289</v>
       </c>
-      <c r="K79" s="6">
+      <c r="K79" s="16">
         <v>0.72123350422019072</v>
       </c>
-      <c r="L79" s="6">
+      <c r="L79" s="16">
         <v>0.72509210629458354</v>
       </c>
-      <c r="M79" s="6">
+      <c r="M79" s="16">
         <v>0.7549418893414126</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="15"/>
+      <c r="A80" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
